--- a/results/ptsd/results.xlsx
+++ b/results/ptsd/results.xlsx
@@ -147,10 +147,10 @@
     <t>none</t>
   </si>
   <si>
-    <t>Arntz, 2007 (Exposure Therapy vs. Waitlist; PSS-SR); Blanchard, 2003 (TF-CBT vs. Waitlist; CAPS); Brom, 1989 (Exposure Therapy vs. Waitlist; IES); Bryant, 2019 (TF-CBT vs. Waitlist; CAPS); Carlson, 1998 (EMDR vs. TAU; M-PTSD); Carlson, 1998 (EMDR vs. TAU; PSS-SR); Ehlers, 2014 (TF-Cognitive Therapy vs. Waitlist; CAPS); Ehlers, 2014 (TF-Cognitive Therapy vs. Waitlist; CAPS); Foa, 1991 (CBT without trauma focus vs. Waitlist; PSS-I); Foa, 1991 (PE vs. Waitlist; PSS-I); Foa, 1999 (PE vs. Waitlist; PSS-I); Foa, 1999 (CBT without trauma focus vs. Waitlist; PSS-I); Foa, 2005 (TF-CBT vs. Waitlist; PSS-I); Franklin, 2017 (PE vs. TAU; CAPS); McDonagh, 2005 (Other non-trauma-focused vs. Waitlist; CAPS); McGeary, 2022 (TF-Cognitive Therapy vs. TAU; PCL); Power, 2002 (EMDR vs. Waitlist; SI-PTSD); Raabe, 2022 (Other non-trauma-focused vs. Waitlist; CAPS); Raabe, 2022 (TF-Other vs. Waitlist; CAPS); Raabe, 2022 (TF-Other vs. Waitlist; PDS); Reger, 2016 (PE vs. Waitlist; CAPS); Resick, 2002 (TF-Cognitive Therapy vs. Other; CAPS); Rothbaum, 2005 (PE vs. Waitlist; CAPS); van den Berg, 2015 (PE vs. Waitlist; CAPS); van Denderen, 2018 (Mixed psychotherapy vs. Waitlist; IES); Wells, 2015 (CBT without trauma focus vs. Waitlist; IES); Wells, 2015 (CBT without trauma focus vs. Waitlist; PDS); Wells, 2015 (PE vs. Waitlist; IES); Zang, 2014 (NET vs. Waitlist; IES)</t>
-  </si>
-  <si>
-    <t>Arntz, 2007 (Exposure Therapy vs. Waitlist; PSS-SR); Blanchard, 2003 (Other non-trauma-focused vs. Waitlist; CAPS); Brom, 1989 (Other non-trauma-focused vs. Waitlist; IES); Bryant, 2019 (TF-CBT vs. Waitlist; CAPS); Carlson, 1998 (EMDR vs. TAU; IES); Carlson, 1998 (EMDR vs. TAU; M-PTSD); Ehlers, 2014 (TF-Cognitive Therapy vs. Waitlist; CAPS); Ehlers, 2014 (Other non-trauma-focused vs. Waitlist; CAPS); Foa, 1991 (PE vs. Waitlist; PSS-I); Foa, 1991 (Other non-trauma-focused vs. Waitlist; PSS-I); Foa, 1999 (CBT without trauma focus vs. Waitlist; PSS-I); Foa, 1999 (Mixed psychotherapy vs. Waitlist; PSS-I); Foa, 2005 (PE vs. Waitlist; PSS-I); Franklin, 2017 (PE vs. TAU; CAPS); McDonagh, 2005 (TF-CBT vs. Waitlist; CAPS); McGeary, 2022 (CBT without trauma focus vs. TAU; PCL); Power, 2002 (TF-CBT vs. Waitlist; SI-PTSD); Raabe, 2022 (Other non-trauma-focused vs. Waitlist; CAPS); Raabe, 2022 (Other non-trauma-focused vs. Waitlist; PDS); Raabe, 2022 (TF-Other vs. Waitlist; CAPS); Reger, 2016 (Exposure Therapy vs. Waitlist; CAPS); Resick, 2002 (PE vs. Other; CAPS); Rothbaum, 2005 (EMDR vs. Waitlist; CAPS); van den Berg, 2015 (EMDR vs. Waitlist; CAPS); van Denderen, 2018 (Mixed psychotherapy vs. Waitlist; IES); Wells, 2015 (CBT without trauma focus vs. Waitlist; IES); Wells, 2015 (PE vs. Waitlist; IES); Wells, 2015 (PE vs. Waitlist; PDS); Zang, 2014 (NET vs. Waitlist; IES)</t>
+    <t>Arntz, 2007 (Exposure Therapy vs. Waitlist; PSS-SR); Blanchard, 2003 (TF-CBT vs. Waitlist; CAPS); Brom, 1989 (Exposure Therapy vs. Waitlist; IES); Bryant, 2019 (TF-CBT vs. Waitlist; CAPS); Carlson, 1998 (EMDR vs. TAU; M-PTSD); Carlson, 1998 (EMDR vs. TAU; PSS-SR); Ehlers, 2014 (TF-Cognitive Therapy vs. Waitlist; CAPS); Ehlers, 2014 (TF-Cognitive Therapy vs. Waitlist; CAPS); Foa, 1991 (CBT without trauma focus vs. Waitlist; PSS-I); Foa, 1991 (PE vs. Waitlist; PSS-I); Foa, 1999 (PE vs. Waitlist; PSS-I); Foa, 1999 (CBT without trauma focus vs. Waitlist; PSS-I); Foa, 2005 (TF-CBT vs. Waitlist; PSS-I); Franklin, 2017 (PE vs. TAU; CAPS); McDonagh, 2005 (Other non-trauma-focused vs. Waitlist; CAPS); McGeary, 2022 (TF-Cognitive Therapy vs. TAU; PCL); Power, 2002 (EMDR vs. Waitlist; SI-PTSD); Raabe, 2022 (Other non-trauma-focused vs. Waitlist; CAPS); Raabe, 2022 (TF-CBT vs. Waitlist; CAPS); Raabe, 2022 (TF-CBT vs. Waitlist; PDS); Reger, 2016 (PE vs. Waitlist; CAPS); Resick, 2002 (TF-Cognitive Therapy vs. Other; CAPS); Rothbaum, 2005 (PE vs. Waitlist; CAPS); van den Berg, 2015 (PE vs. Waitlist; CAPS); van Denderen, 2018 (Mixed psychotherapy vs. Waitlist; IES); Wells, 2015 (CBT without trauma focus vs. Waitlist; IES); Wells, 2015 (CBT without trauma focus vs. Waitlist; PDS); Wells, 2015 (PE vs. Waitlist; IES); Zang, 2014 (NET vs. Waitlist; IES)</t>
+  </si>
+  <si>
+    <t>Arntz, 2007 (Exposure Therapy vs. Waitlist; PSS-SR); Blanchard, 2003 (Other non-trauma-focused vs. Waitlist; CAPS); Brom, 1989 (Other non-trauma-focused vs. Waitlist; IES); Bryant, 2019 (TF-CBT vs. Waitlist; CAPS); Carlson, 1998 (EMDR vs. TAU; IES); Carlson, 1998 (EMDR vs. TAU; M-PTSD); Ehlers, 2014 (TF-Cognitive Therapy vs. Waitlist; CAPS); Ehlers, 2014 (Other non-trauma-focused vs. Waitlist; CAPS); Foa, 1991 (PE vs. Waitlist; PSS-I); Foa, 1991 (Other non-trauma-focused vs. Waitlist; PSS-I); Foa, 1999 (CBT without trauma focus vs. Waitlist; PSS-I); Foa, 1999 (Mixed psychotherapy vs. Waitlist; PSS-I); Foa, 2005 (PE vs. Waitlist; PSS-I); Franklin, 2017 (PE vs. TAU; CAPS); McDonagh, 2005 (TF-CBT vs. Waitlist; CAPS); McGeary, 2022 (CBT without trauma focus vs. TAU; PCL); Power, 2002 (TF-CBT vs. Waitlist; SI-PTSD); Raabe, 2022 (Other non-trauma-focused vs. Waitlist; CAPS); Raabe, 2022 (Other non-trauma-focused vs. Waitlist; PDS); Raabe, 2022 (TF-CBT vs. Waitlist; CAPS); Reger, 2016 (Exposure Therapy vs. Waitlist; CAPS); Resick, 2002 (PE vs. Other; CAPS); Rothbaum, 2005 (EMDR vs. Waitlist; CAPS); van den Berg, 2015 (EMDR vs. Waitlist; CAPS); van Denderen, 2018 (Mixed psychotherapy vs. Waitlist; IES); Wells, 2015 (CBT without trauma focus vs. Waitlist; IES); Wells, 2015 (PE vs. Waitlist; IES); Wells, 2015 (PE vs. Waitlist; PDS); Zang, 2014 (NET vs. Waitlist; IES)</t>
   </si>
   <si>
     <t>Acarturk, 2016; Aldahadha, 2012; Alsheikh Ali, 2020; Basoglu, 2005; Buhmann, 2016; Butler, 2018; Chard, 2005; Efendi, 2020; ElBarazi, 2022; Engel, 2015; Gray, 2019a; Jacob, 2014; Jarero, 2019; Knaevelsrud, 2017; Lehavot, 2021; McGeary, 2022 Cognitive behavioral therapy for headache (CBTH) A; Mueser, 2008; Raabe, 2022 Skills Training in Affect and Interpersonal Regulation (STAIR) A; Reger, 2016 Virtual Reality Exposure Therapy (VRET) A; Rothbaum, 1997; Rothbaum, 2005 Prolonged Exposure (PE) B; Sloan, 2012; Steinert, 2016; Tylee, 2017; van Denderen, 2018 Eye Movement Desensitization and Reprocessing (EMDR) + cognitive behavioral therapy (CBT) without a trauma focus A; van Denderen, 2018 Cognitive behavioral therapy (CBT) + Eye Desensitization and Reprocessing (EMDR) B; Wells, 2015 Metacognitive Therapy A; Zang, 2014 Narrative Exposure Therapy (NET) A; Zang, 2014 Narrative Exposure Therapy (NET) B; Zemestani, 2022</t>
@@ -294,13 +294,13 @@
     <t>[1.05; 2.74]</t>
   </si>
   <si>
-    <t>[0.98; 1.5]</t>
-  </si>
-  <si>
-    <t>[0.55; 2.66]</t>
-  </si>
-  <si>
-    <t>[0.7; 1.44]</t>
+    <t>[0.95; 1.42]</t>
+  </si>
+  <si>
+    <t>[0.59; 3.01]</t>
+  </si>
+  <si>
+    <t>[0.68; 1.59]</t>
   </si>
   <si>
     <t>[-0.35; 0.99]</t>
@@ -318,13 +318,13 @@
     <t>88.9</t>
   </si>
   <si>
-    <t>77.6</t>
-  </si>
-  <si>
-    <t>80.7</t>
-  </si>
-  <si>
-    <t>78.1</t>
+    <t>76.9</t>
+  </si>
+  <si>
+    <t>76.1</t>
+  </si>
+  <si>
+    <t>79.8</t>
   </si>
   <si>
     <t>70.2</t>
@@ -342,13 +342,13 @@
     <t>[82.2; 93.1]</t>
   </si>
   <si>
-    <t>[70.2; 83.2]</t>
-  </si>
-  <si>
-    <t>[60.9; 90.5]</t>
-  </si>
-  <si>
-    <t>[66.7; 85.6]</t>
+    <t>[69.6; 82.4]</t>
+  </si>
+  <si>
+    <t>[46.3; 89.3]</t>
+  </si>
+  <si>
+    <t>[67.9; 87.2]</t>
   </si>
   <si>
     <t>[30.2; 87.3]</t>
@@ -1714,10 +1714,10 @@
         <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -1729,7 +1729,7 @@
         <v>108</v>
       </c>
       <c r="I7" t="n">
-        <v>2.61</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="s">
         <v>113</v>
@@ -1749,10 +1749,10 @@
         <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="F8" t="s">
         <v>93</v>
@@ -1764,7 +1764,7 @@
         <v>109</v>
       </c>
       <c r="I8" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="J8" t="s">
         <v>113</v>
@@ -1784,10 +1784,10 @@
         <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="F9" t="s">
         <v>94</v>
@@ -1799,7 +1799,7 @@
         <v>110</v>
       </c>
       <c r="I9" t="n">
-        <v>3.16</v>
+        <v>2.91</v>
       </c>
       <c r="J9" t="s">
         <v>113</v>
